--- a/pred_ohlcv/54/2019-10-21 INS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 INS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>1067.5071</v>
+        <v>969.0272</v>
       </c>
       <c r="G2" t="n">
-        <v>237.85</v>
+        <v>237.9166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>234</v>
       </c>
       <c r="F3" t="n">
-        <v>1328.4759</v>
+        <v>1067.5071</v>
       </c>
       <c r="G3" t="n">
-        <v>237.7833333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>234</v>
       </c>
       <c r="F4" t="n">
-        <v>420.126</v>
+        <v>1328.4759</v>
       </c>
       <c r="G4" t="n">
-        <v>237.7166666666667</v>
+        <v>237.7833333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -495,15 +509,18 @@
         <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
-        <v>5731.952</v>
+        <v>420.126</v>
       </c>
       <c r="G5" t="n">
-        <v>237.7</v>
+        <v>237.7166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,15 +538,18 @@
         <v>234</v>
       </c>
       <c r="E6" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>1373.2427</v>
+        <v>5731.952</v>
       </c>
       <c r="G6" t="n">
-        <v>237.6166666666667</v>
+        <v>237.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>234</v>
       </c>
       <c r="F7" t="n">
-        <v>1302.3299</v>
+        <v>1373.2427</v>
       </c>
       <c r="G7" t="n">
-        <v>237.4833333333333</v>
+        <v>237.6166666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>234</v>
       </c>
       <c r="F8" t="n">
-        <v>4025.6412</v>
+        <v>1302.3299</v>
       </c>
       <c r="G8" t="n">
-        <v>237.3833333333333</v>
+        <v>237.4833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>234</v>
       </c>
       <c r="F9" t="n">
-        <v>2668.8837</v>
+        <v>4025.6412</v>
       </c>
       <c r="G9" t="n">
-        <v>237.2833333333333</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" t="n">
-        <v>1741.6227</v>
+        <v>2668.8837</v>
       </c>
       <c r="G10" t="n">
-        <v>237.2</v>
+        <v>237.2833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" t="n">
-        <v>1565.6227</v>
+        <v>1741.6227</v>
       </c>
       <c r="G11" t="n">
-        <v>237.1</v>
+        <v>237.2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F12" t="n">
-        <v>3359.6834</v>
+        <v>1565.6227</v>
       </c>
       <c r="G12" t="n">
-        <v>237.0166666666667</v>
+        <v>237.1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>4500.3025</v>
+        <v>3359.6834</v>
       </c>
       <c r="G13" t="n">
-        <v>236.95</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4500.3025</v>
       </c>
       <c r="G14" t="n">
         <v>236.95</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>1677.2426</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>236.9333333333333</v>
+        <v>236.95</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
-        <v>2315.505</v>
+        <v>1677.2426</v>
       </c>
       <c r="G16" t="n">
-        <v>236.8833333333333</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D17" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F17" t="n">
-        <v>12515.3937</v>
+        <v>2315.505</v>
       </c>
       <c r="G17" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>237</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D18" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F18" t="n">
-        <v>436.79357521</v>
+        <v>12515.3937</v>
       </c>
       <c r="G18" t="n">
-        <v>236.7166666666667</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>237</v>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D19" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" t="n">
         <v>237</v>
       </c>
       <c r="F19" t="n">
-        <v>408.975</v>
+        <v>436.79357521</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6333333333333</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>237</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" t="n">
         <v>237</v>
       </c>
       <c r="F20" t="n">
-        <v>642.6656</v>
+        <v>408.975</v>
       </c>
       <c r="G20" t="n">
-        <v>236.5666666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" t="n">
         <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" t="n">
-        <v>1531</v>
+        <v>642.6656</v>
       </c>
       <c r="G21" t="n">
-        <v>236.5</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,18 +999,21 @@
         <v>238</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" t="n">
         <v>238</v>
       </c>
       <c r="F22" t="n">
-        <v>585</v>
+        <v>1531</v>
       </c>
       <c r="G22" t="n">
-        <v>236.45</v>
+        <v>236.5</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" t="n">
         <v>238</v>
       </c>
       <c r="D23" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" t="n">
         <v>238</v>
       </c>
       <c r="F23" t="n">
-        <v>199</v>
+        <v>585</v>
       </c>
       <c r="G23" t="n">
-        <v>236.4</v>
+        <v>236.45</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>239</v>
       </c>
       <c r="C24" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" t="n">
         <v>239</v>
       </c>
       <c r="E24" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" t="n">
-        <v>363.1229</v>
+        <v>199</v>
       </c>
       <c r="G24" t="n">
-        <v>236.35</v>
+        <v>236.4</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>239</v>
       </c>
       <c r="F25" t="n">
-        <v>789.2367</v>
+        <v>363.1229</v>
       </c>
       <c r="G25" t="n">
-        <v>236.3333333333333</v>
+        <v>236.35</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>239</v>
       </c>
       <c r="F26" t="n">
-        <v>537.3440004184</v>
+        <v>789.2367</v>
       </c>
       <c r="G26" t="n">
-        <v>236.3166666666667</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>239</v>
       </c>
       <c r="F27" t="n">
-        <v>428.5685</v>
+        <v>537.3440004184</v>
       </c>
       <c r="G27" t="n">
-        <v>236.3</v>
+        <v>236.3166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>239</v>
       </c>
       <c r="F28" t="n">
-        <v>592.1776</v>
+        <v>428.5685</v>
       </c>
       <c r="G28" t="n">
         <v>236.3</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>239</v>
       </c>
       <c r="F29" t="n">
-        <v>1767.7874</v>
+        <v>592.1776</v>
       </c>
       <c r="G29" t="n">
-        <v>236.2833333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F30" t="n">
-        <v>134.954</v>
+        <v>1767.7874</v>
       </c>
       <c r="G30" t="n">
-        <v>236.25</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>9.95816e-05</v>
+        <v>134.954</v>
       </c>
       <c r="G31" t="n">
         <v>236.25</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1143</v>
+        <v>9.95816e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>236.2666666666667</v>
+        <v>236.25</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F33" t="n">
-        <v>54.5873</v>
+        <v>381.1143</v>
       </c>
       <c r="G33" t="n">
-        <v>236.3</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>238</v>
       </c>
       <c r="F34" t="n">
-        <v>537.9078</v>
+        <v>54.5873</v>
       </c>
       <c r="G34" t="n">
-        <v>236.3333333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>238</v>
       </c>
       <c r="C35" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" t="n">
         <v>238</v>
       </c>
       <c r="F35" t="n">
-        <v>512</v>
+        <v>537.9078</v>
       </c>
       <c r="G35" t="n">
-        <v>236.3833333333333</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" t="n">
         <v>240</v>
@@ -1301,15 +1408,18 @@
         <v>240</v>
       </c>
       <c r="E36" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>260.198</v>
+        <v>512</v>
       </c>
       <c r="G36" t="n">
-        <v>236.45</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" t="n">
         <v>240</v>
@@ -1327,15 +1437,18 @@
         <v>240</v>
       </c>
       <c r="E37" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>260.198</v>
       </c>
       <c r="G37" t="n">
-        <v>236.5</v>
+        <v>236.45</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D38" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E38" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F38" t="n">
-        <v>14338.7007</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D39" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F39" t="n">
-        <v>875.2625</v>
+        <v>14338.7007</v>
       </c>
       <c r="G39" t="n">
         <v>236.4833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>237</v>
       </c>
       <c r="F40" t="n">
-        <v>648.9046</v>
+        <v>875.2625</v>
       </c>
       <c r="G40" t="n">
         <v>236.4833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C41" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D41" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E41" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" t="n">
-        <v>1787.7893</v>
+        <v>648.9046</v>
       </c>
       <c r="G41" t="n">
-        <v>236.5333333333333</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D42" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E42" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F42" t="n">
-        <v>15584.9444</v>
+        <v>1787.7893</v>
       </c>
       <c r="G42" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>238</v>
       </c>
       <c r="C43" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" t="n">
         <v>238</v>
       </c>
       <c r="E43" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F43" t="n">
-        <v>938.1998</v>
+        <v>15584.9444</v>
       </c>
       <c r="G43" t="n">
-        <v>236.5</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" t="n">
         <v>238</v>
       </c>
       <c r="F44" t="n">
-        <v>3383.8097</v>
+        <v>938.1998</v>
       </c>
       <c r="G44" t="n">
-        <v>236.5833333333333</v>
+        <v>236.5</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C45" t="n">
         <v>241</v>
@@ -1535,15 +1669,18 @@
         <v>241</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F45" t="n">
-        <v>734.2202</v>
+        <v>3383.8097</v>
       </c>
       <c r="G45" t="n">
-        <v>236.6666666666667</v>
+        <v>236.5833333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>241</v>
       </c>
       <c r="C46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="n">
         <v>241</v>
       </c>
       <c r="F46" t="n">
-        <v>13904.8471</v>
+        <v>734.2202</v>
       </c>
       <c r="G46" t="n">
-        <v>236.75</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C47" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E47" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F47" t="n">
-        <v>18409.2551</v>
+        <v>13904.8471</v>
       </c>
       <c r="G47" t="n">
-        <v>236.8666666666667</v>
+        <v>236.75</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C48" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D48" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E48" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F48" t="n">
-        <v>2200.2646</v>
+        <v>18409.2551</v>
       </c>
       <c r="G48" t="n">
-        <v>236.95</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D49" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E49" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F49" t="n">
-        <v>515.1662</v>
+        <v>2200.2646</v>
       </c>
       <c r="G49" t="n">
-        <v>237</v>
+        <v>236.95</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E50" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" t="n">
-        <v>42.1234</v>
+        <v>515.1662</v>
       </c>
       <c r="G50" t="n">
-        <v>237.0833333333333</v>
+        <v>237</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F51" t="n">
-        <v>226.6328</v>
+        <v>42.1234</v>
       </c>
       <c r="G51" t="n">
-        <v>237.1</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>237</v>
       </c>
       <c r="F52" t="n">
-        <v>1432.05</v>
+        <v>226.6328</v>
       </c>
       <c r="G52" t="n">
-        <v>237.1333333333333</v>
+        <v>237.1</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F53" t="n">
-        <v>409.0527</v>
+        <v>1432.05</v>
       </c>
       <c r="G53" t="n">
-        <v>237.15</v>
+        <v>237.1333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>204</v>
+        <v>409.0527</v>
       </c>
       <c r="G54" t="n">
-        <v>237.2</v>
+        <v>237.15</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F55" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G55" t="n">
-        <v>237.1833333333333</v>
+        <v>237.2</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D56" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F56" t="n">
-        <v>1002.3219</v>
+        <v>205</v>
       </c>
       <c r="G56" t="n">
-        <v>237.1666666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C57" t="n">
         <v>234</v>
       </c>
       <c r="D57" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" t="n">
         <v>234</v>
       </c>
       <c r="F57" t="n">
-        <v>328</v>
+        <v>1002.3219</v>
       </c>
       <c r="G57" t="n">
         <v>237.1666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>234</v>
       </c>
       <c r="F58" t="n">
-        <v>182.0546</v>
+        <v>328</v>
       </c>
       <c r="G58" t="n">
         <v>237.1666666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" t="n">
         <v>234</v>
@@ -1899,15 +2075,18 @@
         <v>234</v>
       </c>
       <c r="E59" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F59" t="n">
-        <v>10991.8588</v>
+        <v>182.0546</v>
       </c>
       <c r="G59" t="n">
         <v>237.1666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E60" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F60" t="n">
-        <v>1336.5468</v>
+        <v>10991.8588</v>
       </c>
       <c r="G60" t="n">
-        <v>237.2333333333333</v>
+        <v>237.1666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E61" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" t="n">
-        <v>1201.2198</v>
+        <v>1336.5468</v>
       </c>
       <c r="G61" t="n">
-        <v>237.25</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>235</v>
       </c>
       <c r="F62" t="n">
-        <v>212</v>
+        <v>1201.2198</v>
       </c>
       <c r="G62" t="n">
-        <v>237.2666666666667</v>
+        <v>237.25</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F63" t="n">
-        <v>46.3414</v>
+        <v>212</v>
       </c>
       <c r="G63" t="n">
-        <v>237.3166666666667</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>237</v>
       </c>
       <c r="F64" t="n">
-        <v>2535.8672</v>
+        <v>46.3414</v>
       </c>
       <c r="G64" t="n">
-        <v>237.3666666666667</v>
+        <v>237.3166666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>178.55</v>
+        <v>2535.8672</v>
       </c>
       <c r="G65" t="n">
-        <v>237.3833333333333</v>
+        <v>237.3666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>178.55</v>
       </c>
       <c r="G66" t="n">
-        <v>237.4166666666667</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2104,18 +2304,21 @@
         <v>236</v>
       </c>
       <c r="D67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="n">
         <v>236</v>
       </c>
       <c r="F67" t="n">
-        <v>10708.2599</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>237.45</v>
+        <v>237.4166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>236</v>
       </c>
       <c r="C68" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D68" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E68" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F68" t="n">
-        <v>924000</v>
+        <v>10708.2599</v>
       </c>
       <c r="G68" t="n">
-        <v>237.4666666666667</v>
+        <v>237.45</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" t="n">
         <v>235</v>
       </c>
       <c r="D69" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E69" t="n">
         <v>235</v>
       </c>
       <c r="F69" t="n">
-        <v>1911000</v>
+        <v>924000</v>
       </c>
       <c r="G69" t="n">
-        <v>237.4833333333333</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>235</v>
       </c>
       <c r="F70" t="n">
-        <v>1043978.1043</v>
+        <v>1911000</v>
       </c>
       <c r="G70" t="n">
         <v>237.4833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>235</v>
       </c>
       <c r="F71" t="n">
-        <v>564.1686</v>
+        <v>1043978.1043</v>
       </c>
       <c r="G71" t="n">
-        <v>237.4666666666667</v>
+        <v>237.4833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" t="n">
         <v>235</v>
       </c>
       <c r="E72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F72" t="n">
-        <v>728003</v>
+        <v>564.1686</v>
       </c>
       <c r="G72" t="n">
-        <v>237.4166666666667</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>234</v>
       </c>
       <c r="F73" t="n">
-        <v>2212974.7033</v>
+        <v>728003</v>
       </c>
       <c r="G73" t="n">
-        <v>237.35</v>
+        <v>237.4166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>234</v>
       </c>
       <c r="F74" t="n">
-        <v>2176003</v>
+        <v>2212974.7033</v>
       </c>
       <c r="G74" t="n">
-        <v>237.2666666666667</v>
+        <v>237.35</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>234</v>
       </c>
       <c r="F75" t="n">
-        <v>2184006</v>
+        <v>2176003</v>
       </c>
       <c r="G75" t="n">
-        <v>237.1833333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>234</v>
       </c>
       <c r="F76" t="n">
-        <v>2176001</v>
+        <v>2184006</v>
       </c>
       <c r="G76" t="n">
-        <v>237.1166666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2364,18 +2594,21 @@
         <v>234</v>
       </c>
       <c r="D77" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E77" t="n">
         <v>234</v>
       </c>
       <c r="F77" t="n">
-        <v>8000</v>
+        <v>2176001</v>
       </c>
       <c r="G77" t="n">
         <v>237.1166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>234</v>
       </c>
       <c r="C78" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" t="n">
         <v>234</v>
       </c>
       <c r="F78" t="n">
-        <v>1877.164</v>
+        <v>8000</v>
       </c>
       <c r="G78" t="n">
-        <v>237.0666666666667</v>
+        <v>237.1166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C79" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E79" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F79" t="n">
-        <v>18365.2319</v>
+        <v>1877.164</v>
       </c>
       <c r="G79" t="n">
-        <v>237.0166666666667</v>
+        <v>237.0666666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F80" t="n">
-        <v>5330.235</v>
+        <v>18365.2319</v>
       </c>
       <c r="G80" t="n">
-        <v>236.9666666666667</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C81" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E81" t="n">
         <v>232</v>
       </c>
       <c r="F81" t="n">
-        <v>488.3723</v>
+        <v>5330.235</v>
       </c>
       <c r="G81" t="n">
-        <v>236.8666666666667</v>
+        <v>236.9666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>488.3723</v>
       </c>
       <c r="G82" t="n">
-        <v>236.8</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C83" t="n">
         <v>234</v>
@@ -2523,15 +2771,18 @@
         <v>234</v>
       </c>
       <c r="E83" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F83" t="n">
-        <v>607.2832618025</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>236.7333333333333</v>
+        <v>236.8</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>233</v>
       </c>
       <c r="C84" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E84" t="n">
         <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>463.1389</v>
+        <v>607.2832618025</v>
       </c>
       <c r="G84" t="n">
-        <v>236.6333333333333</v>
+        <v>236.7333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>463.1389</v>
       </c>
       <c r="G85" t="n">
-        <v>236.55</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>234</v>
       </c>
       <c r="F86" t="n">
-        <v>1104.3312</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>236.4666666666667</v>
+        <v>236.55</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F87" t="n">
-        <v>3306.4989</v>
+        <v>1104.3312</v>
       </c>
       <c r="G87" t="n">
-        <v>236.3666666666667</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3306.4989</v>
       </c>
       <c r="G88" t="n">
-        <v>236.2833333333333</v>
+        <v>236.3666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C89" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D89" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E89" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F89" t="n">
-        <v>2586.5768</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>236.1666666666667</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C90" t="n">
         <v>232</v>
       </c>
       <c r="D90" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E90" t="n">
         <v>232</v>
       </c>
       <c r="F90" t="n">
-        <v>70</v>
+        <v>2586.5768</v>
       </c>
       <c r="G90" t="n">
-        <v>236.0666666666667</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G91" t="n">
-        <v>235.9833333333333</v>
+        <v>236.0666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D92" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E92" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F92" t="n">
-        <v>865.0901</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>235.8833333333333</v>
+        <v>235.9833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C93" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D93" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>865.0901</v>
       </c>
       <c r="G93" t="n">
-        <v>235.8166666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C94" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E94" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F94" t="n">
-        <v>3720.7997</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>235.7333333333333</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E95" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3720.7997</v>
       </c>
       <c r="G95" t="n">
-        <v>235.6333333333333</v>
+        <v>235.7333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96" t="n">
         <v>234</v>
@@ -2861,15 +3148,18 @@
         <v>234</v>
       </c>
       <c r="E96" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F96" t="n">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>235.5333333333333</v>
+        <v>235.6333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" t="n">
         <v>234</v>
@@ -2890,12 +3180,15 @@
         <v>233</v>
       </c>
       <c r="F97" t="n">
-        <v>5284.8924</v>
+        <v>132</v>
       </c>
       <c r="G97" t="n">
-        <v>235.4333333333333</v>
+        <v>235.5333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2913,15 +3206,18 @@
         <v>234</v>
       </c>
       <c r="E98" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F98" t="n">
-        <v>131</v>
+        <v>5284.8924</v>
       </c>
       <c r="G98" t="n">
         <v>235.4333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G99" t="n">
-        <v>235.4</v>
+        <v>235.4333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>5122.7627</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>235.3666666666667</v>
+        <v>235.4</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>5122.7627</v>
       </c>
       <c r="G101" t="n">
-        <v>235.3166666666667</v>
+        <v>235.3666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F102" t="n">
-        <v>239.1065</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>235.3166666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>239.1065</v>
       </c>
       <c r="G103" t="n">
-        <v>235.3</v>
+        <v>235.3166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>235.25</v>
+        <v>235.3</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F105" t="n">
-        <v>40.403</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>235.1333333333333</v>
+        <v>235.25</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>40.403</v>
       </c>
       <c r="G106" t="n">
-        <v>235.05</v>
+        <v>235.1333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>234.9666666666667</v>
+        <v>235.05</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>238</v>
       </c>
       <c r="C108" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D108" t="n">
         <v>238</v>
       </c>
       <c r="E108" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F108" t="n">
-        <v>579.6706</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>234.9</v>
+        <v>234.9666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,22 +3519,25 @@
         <v>238</v>
       </c>
       <c r="C109" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D109" t="n">
         <v>238</v>
       </c>
       <c r="E109" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F109" t="n">
-        <v>541.1623</v>
+        <v>579.6706</v>
       </c>
       <c r="G109" t="n">
-        <v>234.9333333333333</v>
+        <v>234.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C110" t="n">
         <v>238</v>
@@ -3225,15 +3554,18 @@
         <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F110" t="n">
-        <v>2930.7666</v>
+        <v>541.1623</v>
       </c>
       <c r="G110" t="n">
         <v>234.9333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" t="n">
         <v>238</v>
@@ -3251,16 +3583,19 @@
         <v>238</v>
       </c>
       <c r="E111" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F111" t="n">
-        <v>1119.3357</v>
+        <v>2930.7666</v>
       </c>
       <c r="G111" t="n">
-        <v>234.95</v>
+        <v>234.9333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3280,13 +3615,16 @@
         <v>238</v>
       </c>
       <c r="F112" t="n">
-        <v>11</v>
+        <v>1119.3357</v>
       </c>
       <c r="G112" t="n">
-        <v>234.9666666666667</v>
+        <v>234.95</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>235.0166666666667</v>
+        <v>234.9666666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>239</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>235.0333333333333</v>
+        <v>235.0166666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C115" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D115" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E115" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F115" t="n">
-        <v>23603.8136</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>235</v>
+        <v>235.0333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C116" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D116" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E116" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>23603.8136</v>
       </c>
       <c r="G116" t="n">
-        <v>235.0666666666667</v>
+        <v>235</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F117" t="n">
-        <v>211.85</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>235.1166666666667</v>
+        <v>235.0666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>237</v>
       </c>
       <c r="F118" t="n">
-        <v>1664.9999</v>
+        <v>211.85</v>
       </c>
       <c r="G118" t="n">
-        <v>235.1666666666667</v>
+        <v>235.1166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>237</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001</v>
+        <v>1664.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>235.2166666666667</v>
+        <v>235.1666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>237</v>
       </c>
       <c r="F120" t="n">
-        <v>3192</v>
+        <v>0.0001</v>
       </c>
       <c r="G120" t="n">
-        <v>235.2</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>3192</v>
       </c>
       <c r="G121" t="n">
-        <v>235.25</v>
+        <v>235.2</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F122" t="n">
-        <v>220.8662</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>235.2666666666667</v>
+        <v>235.25</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>236</v>
       </c>
       <c r="C123" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E123" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F123" t="n">
-        <v>1941.2724</v>
+        <v>220.8662</v>
       </c>
       <c r="G123" t="n">
         <v>235.2666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D124" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E124" t="n">
         <v>235</v>
       </c>
       <c r="F124" t="n">
-        <v>46.7477</v>
+        <v>1941.2724</v>
       </c>
       <c r="G124" t="n">
-        <v>235.2333333333333</v>
+        <v>235.2666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>235</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>46.7477</v>
       </c>
       <c r="G125" t="n">
         <v>235.2333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>235</v>
       </c>
       <c r="F126" t="n">
-        <v>433.1299</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>235.2166666666667</v>
+        <v>235.2333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>235</v>
       </c>
       <c r="F127" t="n">
-        <v>774.2322</v>
+        <v>433.1299</v>
       </c>
       <c r="G127" t="n">
-        <v>235.2</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>235</v>
       </c>
       <c r="F128" t="n">
-        <v>68</v>
+        <v>774.2322</v>
       </c>
       <c r="G128" t="n">
         <v>235.2</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>235</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G129" t="n">
         <v>235.2</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>235</v>
       </c>
       <c r="F130" t="n">
-        <v>2052.6157</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>235.2</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2052.6157</v>
       </c>
       <c r="G131" t="n">
-        <v>235.2166666666667</v>
+        <v>235.2</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>236</v>
       </c>
       <c r="F132" t="n">
-        <v>44.7477</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>235.25</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>44.7477</v>
       </c>
       <c r="G133" t="n">
-        <v>235.3</v>
+        <v>235.25</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C134" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D134" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F134" t="n">
-        <v>5877.9822</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>235.3666666666667</v>
+        <v>235.3</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C135" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D135" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E135" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>46.8824</v>
+        <v>5877.9822</v>
       </c>
       <c r="G135" t="n">
-        <v>235.4</v>
+        <v>235.3666666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F136" t="n">
         <v>46.8824</v>
       </c>
       <c r="G136" t="n">
-        <v>235.4166666666667</v>
+        <v>235.4</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>46.8824</v>
       </c>
       <c r="G137" t="n">
-        <v>235.45</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,544 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C138" t="n">
         <v>236</v>
       </c>
       <c r="D138" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E138" t="n">
         <v>236</v>
       </c>
       <c r="F138" t="n">
-        <v>45.5424</v>
+        <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>235.4666666666667</v>
+        <v>235.45</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>236</v>
-      </c>
-      <c r="C139" t="n">
-        <v>236</v>
-      </c>
-      <c r="D139" t="n">
-        <v>236</v>
-      </c>
-      <c r="E139" t="n">
-        <v>236</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5989.5725</v>
-      </c>
-      <c r="G139" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>236</v>
-      </c>
-      <c r="C140" t="n">
-        <v>236</v>
-      </c>
-      <c r="D140" t="n">
-        <v>236</v>
-      </c>
-      <c r="E140" t="n">
-        <v>236</v>
-      </c>
-      <c r="F140" t="n">
-        <v>938.9999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>235.5166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>236</v>
-      </c>
-      <c r="C141" t="n">
-        <v>236</v>
-      </c>
-      <c r="D141" t="n">
-        <v>236</v>
-      </c>
-      <c r="E141" t="n">
-        <v>236</v>
-      </c>
-      <c r="F141" t="n">
-        <v>940</v>
-      </c>
-      <c r="G141" t="n">
-        <v>235.5833333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>238</v>
-      </c>
-      <c r="C142" t="n">
-        <v>238</v>
-      </c>
-      <c r="D142" t="n">
-        <v>238</v>
-      </c>
-      <c r="E142" t="n">
-        <v>238</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>235.65</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>236</v>
-      </c>
-      <c r="C143" t="n">
-        <v>236</v>
-      </c>
-      <c r="D143" t="n">
-        <v>236</v>
-      </c>
-      <c r="E143" t="n">
-        <v>236</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4476.9109</v>
-      </c>
-      <c r="G143" t="n">
-        <v>235.6833333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>238</v>
-      </c>
-      <c r="C144" t="n">
-        <v>238</v>
-      </c>
-      <c r="D144" t="n">
-        <v>238</v>
-      </c>
-      <c r="E144" t="n">
-        <v>238</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3</v>
-      </c>
-      <c r="G144" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>236</v>
-      </c>
-      <c r="C145" t="n">
-        <v>235</v>
-      </c>
-      <c r="D145" t="n">
-        <v>236</v>
-      </c>
-      <c r="E145" t="n">
-        <v>235</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2773.3049</v>
-      </c>
-      <c r="G145" t="n">
-        <v>235.7833333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>236</v>
-      </c>
-      <c r="C146" t="n">
-        <v>236</v>
-      </c>
-      <c r="D146" t="n">
-        <v>236</v>
-      </c>
-      <c r="E146" t="n">
-        <v>236</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3</v>
-      </c>
-      <c r="G146" t="n">
-        <v>235.8166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>236</v>
-      </c>
-      <c r="C147" t="n">
-        <v>236</v>
-      </c>
-      <c r="D147" t="n">
-        <v>236</v>
-      </c>
-      <c r="E147" t="n">
-        <v>236</v>
-      </c>
-      <c r="F147" t="n">
-        <v>8305.5597</v>
-      </c>
-      <c r="G147" t="n">
-        <v>235.8666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>236</v>
-      </c>
-      <c r="C148" t="n">
-        <v>236</v>
-      </c>
-      <c r="D148" t="n">
-        <v>236</v>
-      </c>
-      <c r="E148" t="n">
-        <v>236</v>
-      </c>
-      <c r="F148" t="n">
-        <v>799200</v>
-      </c>
-      <c r="G148" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>236</v>
-      </c>
-      <c r="C149" t="n">
-        <v>236</v>
-      </c>
-      <c r="D149" t="n">
-        <v>236</v>
-      </c>
-      <c r="E149" t="n">
-        <v>236</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1953600</v>
-      </c>
-      <c r="G149" t="n">
-        <v>235.9666666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>236</v>
-      </c>
-      <c r="C150" t="n">
-        <v>237</v>
-      </c>
-      <c r="D150" t="n">
-        <v>237</v>
-      </c>
-      <c r="E150" t="n">
-        <v>236</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1806803</v>
-      </c>
-      <c r="G150" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>237</v>
-      </c>
-      <c r="C151" t="n">
-        <v>237</v>
-      </c>
-      <c r="D151" t="n">
-        <v>237</v>
-      </c>
-      <c r="E151" t="n">
-        <v>237</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3332</v>
-      </c>
-      <c r="G151" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>238</v>
-      </c>
-      <c r="C152" t="n">
-        <v>238</v>
-      </c>
-      <c r="D152" t="n">
-        <v>238</v>
-      </c>
-      <c r="E152" t="n">
-        <v>238</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5162.6302</v>
-      </c>
-      <c r="G152" t="n">
-        <v>236.1833333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>237</v>
-      </c>
-      <c r="C153" t="n">
-        <v>237</v>
-      </c>
-      <c r="D153" t="n">
-        <v>237</v>
-      </c>
-      <c r="E153" t="n">
-        <v>237</v>
-      </c>
-      <c r="F153" t="n">
-        <v>905.5597</v>
-      </c>
-      <c r="G153" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>239</v>
-      </c>
-      <c r="C154" t="n">
-        <v>239</v>
-      </c>
-      <c r="D154" t="n">
-        <v>239</v>
-      </c>
-      <c r="E154" t="n">
-        <v>239</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1443.3114</v>
-      </c>
-      <c r="G154" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>239</v>
-      </c>
-      <c r="C155" t="n">
-        <v>239</v>
-      </c>
-      <c r="D155" t="n">
-        <v>239</v>
-      </c>
-      <c r="E155" t="n">
-        <v>239</v>
-      </c>
-      <c r="F155" t="n">
-        <v>12</v>
-      </c>
-      <c r="G155" t="n">
-        <v>236.4166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>236</v>
-      </c>
-      <c r="C156" t="n">
-        <v>236</v>
-      </c>
-      <c r="D156" t="n">
-        <v>236</v>
-      </c>
-      <c r="E156" t="n">
-        <v>236</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1323.0416</v>
-      </c>
-      <c r="G156" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>236</v>
-      </c>
-      <c r="C157" t="n">
-        <v>236</v>
-      </c>
-      <c r="D157" t="n">
-        <v>236</v>
-      </c>
-      <c r="E157" t="n">
-        <v>236</v>
-      </c>
-      <c r="F157" t="n">
-        <v>221.7665</v>
-      </c>
-      <c r="G157" t="n">
-        <v>236.4833333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>236</v>
-      </c>
-      <c r="C158" t="n">
-        <v>237</v>
-      </c>
-      <c r="D158" t="n">
-        <v>237</v>
-      </c>
-      <c r="E158" t="n">
-        <v>236</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5</v>
-      </c>
-      <c r="G158" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="H158" t="n">
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
